--- a/HPC_INCI.xlsx
+++ b/HPC_INCI.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Arquivos\Fermin\2023-12_Aprender\Cosmetics HPC\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99F6DD1C-90AA-4FB3-9ECF-9C0D1CFF6A72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBA8DAB-CFBF-4F26-B651-E1D9D15E8CD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B82240C9-16BF-4922-8144-835318B96D9A}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="266" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="250">
   <si>
     <t>glycerin</t>
   </si>
@@ -599,6 +599,192 @@
   </si>
   <si>
     <t>none.png</t>
+  </si>
+  <si>
+    <t>Sodium Lauryl Sulfate</t>
+  </si>
+  <si>
+    <t>lauril sulfato de sódio</t>
+  </si>
+  <si>
+    <t>laurilsulfato de sodio</t>
+  </si>
+  <si>
+    <t>Sodium dodecyl sulfate</t>
+  </si>
+  <si>
+    <t>Sodium Lauryl Sulfate.png</t>
+  </si>
+  <si>
+    <t>anionic surfactants</t>
+  </si>
+  <si>
+    <t>widely used anionic surfactant known for its strong cleansing and foaming properties</t>
+  </si>
+  <si>
+    <t>Ammonium Lauryl Sulfate</t>
+  </si>
+  <si>
+    <t>lauril sulfato de amônio</t>
+  </si>
+  <si>
+    <t>lauril sulfato de amonio</t>
+  </si>
+  <si>
+    <t>Ammonium Dodecyl Sulfate</t>
+  </si>
+  <si>
+    <t>Ammonium Lauryl Sulfate.png</t>
+  </si>
+  <si>
+    <t>Triethanolamine Lauryl Sulfate</t>
+  </si>
+  <si>
+    <t>lauril sulfato de trietanolamina</t>
+  </si>
+  <si>
+    <t>Tris(2-hydroxyethyl)ammonium dodecyl sulfate</t>
+  </si>
+  <si>
+    <t>Triethanolamine Lauryl Sulfate.png</t>
+  </si>
+  <si>
+    <t>anionic surfactant, acts as a cleansing and foaming agent, helping to remove dirt  while creating a rich, stable foam</t>
+  </si>
+  <si>
+    <t>Sodium Cetyl Sulfate</t>
+  </si>
+  <si>
+    <t>sulfato de cetila de sódio</t>
+  </si>
+  <si>
+    <t>sulfato de cetilo de sodio</t>
+  </si>
+  <si>
+    <t>Sodium Hexadecyl Sulfate</t>
+  </si>
+  <si>
+    <t>Sodium Cetyl Sulfate.png</t>
+  </si>
+  <si>
+    <t>anionic surfactant , acts as a cleansing, emulsifying, and foaming agent, helping to remove dirt while stabilizing formulations</t>
+  </si>
+  <si>
+    <t>Polyoxyethylene Sodium Lauryl Ether Sulfate</t>
+  </si>
+  <si>
+    <t>lauril éter sulfato de sódio</t>
+  </si>
+  <si>
+    <t>lauril éter sulfato de socio</t>
+  </si>
+  <si>
+    <t>Sodium Laureth Sulfate</t>
+  </si>
+  <si>
+    <t>Sodium polyoxyethylene lauryl ether sulfate</t>
+  </si>
+  <si>
+    <t>Sodium lauryl ethoxysulfate.png</t>
+  </si>
+  <si>
+    <t>anionic surfactant, provides foaming, cleansing, and emulsifying properties, making it effective for removing dirt while maintaining a mild formulation</t>
+  </si>
+  <si>
+    <t>Sodium Lauroyl Methyl Taurate</t>
+  </si>
+  <si>
+    <t>lauril metil taurato de sódio</t>
+  </si>
+  <si>
+    <t>metil N-lauroil taurato de sodio</t>
+  </si>
+  <si>
+    <t>Sodium 2-[methyl (1-oxododecyl)amino]ethanesulfonate</t>
+  </si>
+  <si>
+    <t>Sodium lauroyl methyl taurate.png</t>
+  </si>
+  <si>
+    <t>anionic surfactant,  provides mild cleansing, foaming, and emulsifying properties, making it effective for removing dirt while being gentle on the skin</t>
+  </si>
+  <si>
+    <t>Sodium Myristoyl Methyl Taurate</t>
+  </si>
+  <si>
+    <t>Sodium 2-[methyl (1-oxotetradecyl)amino]ethanesulfonate</t>
+  </si>
+  <si>
+    <t>ethanesulfonic acid, 2-(methyl(1-oxotetradecyl)amino)-, sodium salt.png</t>
+  </si>
+  <si>
+    <t>Sodium Lauroyl Methyl Alanine</t>
+  </si>
+  <si>
+    <t>Sodium N-methyl-N-(1-oxododecyl)-β-alaninate</t>
+  </si>
+  <si>
+    <t>Sodium lauroyl methylaminopropionate.png</t>
+  </si>
+  <si>
+    <t>Potassium Lauroyl Sarcosinate</t>
+  </si>
+  <si>
+    <t>potássio lauroil sarcosinato</t>
+  </si>
+  <si>
+    <t>potasio lauroil sarcosinato</t>
+  </si>
+  <si>
+    <t>Potassium salt of lauroyl sarcosine</t>
+  </si>
+  <si>
+    <t>Potassium Lauroyl Sarcosinate.png</t>
+  </si>
+  <si>
+    <t>Triethanolamine lauroylsarcosinate</t>
+  </si>
+  <si>
+    <t>TEA Lauroyl Sarcosinate</t>
+  </si>
+  <si>
+    <t>N-Methyl-N-(1-oxododecyl)glycine, compound with 2,2',2''-nitrilotri(ethanol) (1:1)</t>
+  </si>
+  <si>
+    <t>Triethanolamine lauroylsarcosinate.png</t>
+  </si>
+  <si>
+    <t>Sodium Alkyl (C14–16) Sulfonate</t>
+  </si>
+  <si>
+    <t>sódio C14-16 sulfonato de olefina</t>
+  </si>
+  <si>
+    <t>sulfonato de olefina (C14-16) sódico</t>
+  </si>
+  <si>
+    <t>Sodium C14-16 Olefin Sulfonate</t>
+  </si>
+  <si>
+    <t>Sulfonic acids, C14-16-alkane hydroxy and C14-16-alkene, sodium salts</t>
+  </si>
+  <si>
+    <t>Sodium c14 olefin sulfonate.png</t>
+  </si>
+  <si>
+    <t>Dioctyl Sodium Sulfosuccinate</t>
+  </si>
+  <si>
+    <t>dioctilsulfossuccinato de sódio</t>
+  </si>
+  <si>
+    <t>sulfosuccinato de dioctilo, sal de sodio</t>
+  </si>
+  <si>
+    <t>Sodium 1,4-dioctoxy-1,4-dioxobutane-2-sulfonate</t>
+  </si>
+  <si>
+    <t>Di-n-octyl sodium sulfosuccinate.png</t>
   </si>
 </sst>
 </file>
@@ -953,11 +1139,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A10C8010-2312-4DD3-9D56-A5E0A5F51F3B}">
-  <dimension ref="A1:H34"/>
+  <dimension ref="A1:H46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B28" sqref="B28"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1838,6 +2024,294 @@
         <v>181</v>
       </c>
     </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>188</v>
+      </c>
+      <c r="B35" t="s">
+        <v>189</v>
+      </c>
+      <c r="C35" t="s">
+        <v>190</v>
+      </c>
+      <c r="D35" t="s">
+        <v>188</v>
+      </c>
+      <c r="E35" t="s">
+        <v>191</v>
+      </c>
+      <c r="F35" t="s">
+        <v>192</v>
+      </c>
+      <c r="G35" t="s">
+        <v>193</v>
+      </c>
+      <c r="H35" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>195</v>
+      </c>
+      <c r="B36" t="s">
+        <v>196</v>
+      </c>
+      <c r="C36" t="s">
+        <v>197</v>
+      </c>
+      <c r="D36" t="s">
+        <v>195</v>
+      </c>
+      <c r="E36" t="s">
+        <v>198</v>
+      </c>
+      <c r="F36" t="s">
+        <v>199</v>
+      </c>
+      <c r="G36" t="s">
+        <v>193</v>
+      </c>
+      <c r="H36" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>200</v>
+      </c>
+      <c r="B37" t="s">
+        <v>201</v>
+      </c>
+      <c r="C37" t="s">
+        <v>201</v>
+      </c>
+      <c r="D37" t="s">
+        <v>200</v>
+      </c>
+      <c r="E37" t="s">
+        <v>202</v>
+      </c>
+      <c r="F37" t="s">
+        <v>203</v>
+      </c>
+      <c r="G37" t="s">
+        <v>193</v>
+      </c>
+      <c r="H37" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>205</v>
+      </c>
+      <c r="B38" t="s">
+        <v>206</v>
+      </c>
+      <c r="C38" t="s">
+        <v>207</v>
+      </c>
+      <c r="D38" t="s">
+        <v>205</v>
+      </c>
+      <c r="E38" t="s">
+        <v>208</v>
+      </c>
+      <c r="F38" t="s">
+        <v>209</v>
+      </c>
+      <c r="G38" t="s">
+        <v>193</v>
+      </c>
+      <c r="H38" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>211</v>
+      </c>
+      <c r="B39" t="s">
+        <v>212</v>
+      </c>
+      <c r="C39" t="s">
+        <v>213</v>
+      </c>
+      <c r="D39" t="s">
+        <v>214</v>
+      </c>
+      <c r="E39" t="s">
+        <v>215</v>
+      </c>
+      <c r="F39" t="s">
+        <v>216</v>
+      </c>
+      <c r="G39" t="s">
+        <v>193</v>
+      </c>
+      <c r="H39" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>218</v>
+      </c>
+      <c r="B40" t="s">
+        <v>219</v>
+      </c>
+      <c r="C40" t="s">
+        <v>220</v>
+      </c>
+      <c r="D40" t="s">
+        <v>218</v>
+      </c>
+      <c r="E40" t="s">
+        <v>221</v>
+      </c>
+      <c r="F40" t="s">
+        <v>222</v>
+      </c>
+      <c r="G40" t="s">
+        <v>193</v>
+      </c>
+      <c r="H40" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>224</v>
+      </c>
+      <c r="D41" t="s">
+        <v>224</v>
+      </c>
+      <c r="E41" t="s">
+        <v>225</v>
+      </c>
+      <c r="F41" t="s">
+        <v>226</v>
+      </c>
+      <c r="G41" t="s">
+        <v>193</v>
+      </c>
+      <c r="H41" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>227</v>
+      </c>
+      <c r="D42" t="s">
+        <v>227</v>
+      </c>
+      <c r="E42" t="s">
+        <v>228</v>
+      </c>
+      <c r="F42" t="s">
+        <v>229</v>
+      </c>
+      <c r="G42" t="s">
+        <v>193</v>
+      </c>
+      <c r="H42" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>230</v>
+      </c>
+      <c r="B43" t="s">
+        <v>231</v>
+      </c>
+      <c r="C43" t="s">
+        <v>232</v>
+      </c>
+      <c r="D43" t="s">
+        <v>230</v>
+      </c>
+      <c r="E43" t="s">
+        <v>233</v>
+      </c>
+      <c r="F43" t="s">
+        <v>234</v>
+      </c>
+      <c r="G43" t="s">
+        <v>193</v>
+      </c>
+      <c r="H43" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>235</v>
+      </c>
+      <c r="D44" t="s">
+        <v>236</v>
+      </c>
+      <c r="E44" t="s">
+        <v>237</v>
+      </c>
+      <c r="F44" t="s">
+        <v>238</v>
+      </c>
+      <c r="H44" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>239</v>
+      </c>
+      <c r="B45" t="s">
+        <v>240</v>
+      </c>
+      <c r="C45" t="s">
+        <v>241</v>
+      </c>
+      <c r="D45" t="s">
+        <v>242</v>
+      </c>
+      <c r="E45" t="s">
+        <v>243</v>
+      </c>
+      <c r="F45" t="s">
+        <v>244</v>
+      </c>
+      <c r="G45" t="s">
+        <v>193</v>
+      </c>
+      <c r="H45" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>245</v>
+      </c>
+      <c r="B46" t="s">
+        <v>246</v>
+      </c>
+      <c r="C46" t="s">
+        <v>247</v>
+      </c>
+      <c r="D46" t="s">
+        <v>245</v>
+      </c>
+      <c r="E46" t="s">
+        <v>248</v>
+      </c>
+      <c r="F46" t="s">
+        <v>249</v>
+      </c>
+      <c r="G46" t="s">
+        <v>193</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
